--- a/data/apicase.xlsx
+++ b/data/apicase.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="reset_pwd" sheetId="2" r:id="rId2"/>
     <sheet name="my_push" sheetId="3" r:id="rId3"/>
-    <sheet name="record" sheetId="4" r:id="rId4"/>
-    <sheet name="record_delete" sheetId="5" r:id="rId5"/>
+    <sheet name="my_push_del" sheetId="6" r:id="rId4"/>
+    <sheet name="record" sheetId="4" r:id="rId5"/>
+    <sheet name="record_delete" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>case_id</t>
   </si>
@@ -412,6 +413,28 @@
 }</t>
   </si>
   <si>
+    <t>my_push_del</t>
+  </si>
+  <si>
+    <t>/m/my_push_delete</t>
+  </si>
+  <si>
+    <t>{"cid":"1",
+ "state":"0"}</t>
+  </si>
+  <si>
+    <t>{
+"time": 0,
+"code": 0,
+"msg": "店铺不存在",
+"data": "string"
+}</t>
+  </si>
+  <si>
+    <t>{"cid":"1",
+ "state":"1"}</t>
+  </si>
+  <si>
     <t>record</t>
   </si>
   <si>
@@ -454,10 +477,6 @@
     <t>/m/record_delete</t>
   </si>
   <si>
-    <t>{"cid":"1",
- "state":"0"}</t>
-  </si>
-  <si>
     <t>{
 "code":"200",             
 "time": 0,
@@ -469,20 +488,16 @@
   <si>
     <t>浏览记录删除_出租</t>
   </si>
-  <si>
-    <t>{"cid":"1",
- "state":"1"}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -514,11 +529,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,17 +561,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,9 +575,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,6 +613,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -577,7 +635,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -590,65 +664,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -659,187 +674,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,20 +868,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,6 +898,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -897,6 +918,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,21 +952,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -958,10 +973,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -970,137 +985,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1112,6 +1127,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -1519,7 +1537,7 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1545,7 +1563,7 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1698,8 +1716,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1825,10 +1843,128 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="7" max="7" width="54.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="135" customHeight="1" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="124" customHeight="1" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:H3"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1872,22 +2008,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -1898,22 +2034,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1925,13 +2061,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1974,22 +2110,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="94.5" customHeight="1" spans="1:7">
@@ -1997,22 +2133,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
